--- a/stock_historical_data/1wk/AMIORG.NS.xlsx
+++ b/stock_historical_data/1wk/AMIORG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q145"/>
+  <dimension ref="A1:R147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2111,7 +2203,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2641,7 +2763,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2853,7 +2987,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3171,7 +3323,10 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>2</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>1</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>2</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>1</v>
       </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>2</v>
       </c>
+      <c r="R74" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4604,6 +4837,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4657,6 +4893,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4710,6 +4949,9 @@
       <c r="Q80" t="n">
         <v>1</v>
       </c>
+      <c r="R80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4763,6 +5005,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4816,6 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4869,6 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4922,6 +5173,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4975,6 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5028,6 +5285,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5081,6 +5341,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5134,6 +5397,9 @@
       <c r="Q88" t="n">
         <v>1</v>
       </c>
+      <c r="R88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5187,6 +5453,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5240,6 +5509,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5293,6 +5565,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5346,6 +5621,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5399,6 +5677,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5452,6 +5733,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5505,6 +5789,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5558,6 +5845,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5611,6 +5901,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5664,6 +5957,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5717,6 +6013,9 @@
       <c r="Q99" t="n">
         <v>2</v>
       </c>
+      <c r="R99" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5770,6 +6069,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5823,6 +6125,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5876,6 +6181,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5929,6 +6237,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5982,6 +6293,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6035,6 +6349,9 @@
       <c r="Q105" t="n">
         <v>1</v>
       </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6088,6 +6405,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6141,6 +6461,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6194,6 +6517,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6247,6 +6573,9 @@
       <c r="Q109" t="n">
         <v>2</v>
       </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6300,6 +6629,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6353,6 +6685,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6406,6 +6741,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6459,6 +6797,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6512,6 +6853,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6565,6 +6909,9 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6618,6 +6965,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6671,6 +7021,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6724,6 +7077,9 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6777,6 +7133,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6830,6 +7189,9 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6883,6 +7245,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6936,6 +7301,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6989,6 +7357,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7042,6 +7413,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7095,6 +7469,9 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7148,6 +7525,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7201,6 +7581,9 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7254,6 +7637,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7307,6 +7693,9 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7360,6 +7749,9 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7413,6 +7805,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7466,6 +7861,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7519,6 +7917,9 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7572,6 +7973,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7625,6 +8029,9 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7678,6 +8085,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7731,6 +8141,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7784,6 +8197,9 @@
       <c r="Q138" t="n">
         <v>1</v>
       </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7837,6 +8253,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7890,6 +8309,9 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7943,6 +8365,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7996,6 +8421,9 @@
       <c r="Q142" t="n">
         <v>2</v>
       </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8049,6 +8477,9 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8102,6 +8533,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8155,6 +8589,117 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1296.050048828125</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1469</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1280.699951171875</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1357.5</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1357.5</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2498339</v>
+      </c>
+      <c r="H146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I146" t="n">
+        <v>6</v>
+      </c>
+      <c r="J146" t="n">
+        <v>17</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>25</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1359.849975585938</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1369</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1283</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1292.449951171875</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1292.449951171875</v>
+      </c>
+      <c r="G147" t="n">
+        <v>903375</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I147" t="n">
+        <v>6</v>
+      </c>
+      <c r="J147" t="n">
+        <v>24</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>26</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R147" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/AMIORG.NS.xlsx
+++ b/stock_historical_data/1wk/AMIORG.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R147"/>
+  <dimension ref="A1:R182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -8525,7 +8525,7 @@
         <v>23</v>
       </c>
       <c r="O144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P144" t="n">
         <v>0</v>
@@ -8637,7 +8637,7 @@
         <v>25</v>
       </c>
       <c r="O146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P146" t="n">
         <v>0</v>
@@ -8645,7 +8645,9 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
-      <c r="R146" t="inlineStr"/>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8699,7 +8701,1829 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
-      <c r="R147" t="inlineStr"/>
+      <c r="R147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1327.266020279372</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1444.02551228891</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1282.358523352626</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1423.817138671875</v>
+      </c>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="n">
+        <v>1705620</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I148" t="n">
+        <v>7</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>27</v>
+      </c>
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1427.060481308589</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1448.965311996727</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1313.294820560912</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1370.077880859375</v>
+      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="n">
+        <v>1066691</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I149" t="n">
+        <v>7</v>
+      </c>
+      <c r="J149" t="n">
+        <v>8</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>28</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1373.770279886129</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1383.300697933649</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1276.520643775033</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1309.951782226562</v>
+      </c>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="n">
+        <v>493864</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I150" t="n">
+        <v>7</v>
+      </c>
+      <c r="J150" t="n">
+        <v>15</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>29</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P150" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>1</v>
+      </c>
+      <c r="R150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1302.31747554649</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1353.212641257502</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1232.461365747062</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1312.496459960938</v>
+      </c>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="n">
+        <v>612842</v>
+      </c>
+      <c r="H151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I151" t="n">
+        <v>7</v>
+      </c>
+      <c r="J151" t="n">
+        <v>22</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>30</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1377.163341090442</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1377.163341090442</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1317.28667408651</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1330.40966796875</v>
+      </c>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="n">
+        <v>883209</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I152" t="n">
+        <v>7</v>
+      </c>
+      <c r="J152" t="n">
+        <v>29</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>31</v>
+      </c>
+      <c r="O152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>2</v>
+      </c>
+      <c r="R152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1217.691735401506</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1337.24552592461</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1217.691735401506</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1288.196533203125</v>
+      </c>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="n">
+        <v>637843</v>
+      </c>
+      <c r="H153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I153" t="n">
+        <v>8</v>
+      </c>
+      <c r="J153" t="n">
+        <v>5</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>32</v>
+      </c>
+      <c r="O153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1287.348263808097</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1319.631740478477</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1212.502434516928</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1255.463989257812</v>
+      </c>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="n">
+        <v>729958</v>
+      </c>
+      <c r="H154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I154" t="n">
+        <v>8</v>
+      </c>
+      <c r="J154" t="n">
+        <v>12</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>33</v>
+      </c>
+      <c r="O154" t="n">
+        <v>2</v>
+      </c>
+      <c r="P154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1267.389390049251</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1342.23522017027</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1256.960919780144</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1291.7392578125</v>
+      </c>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="n">
+        <v>770247</v>
+      </c>
+      <c r="H155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I155" t="n">
+        <v>8</v>
+      </c>
+      <c r="J155" t="n">
+        <v>19</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>34</v>
+      </c>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1291.789097935339</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1395.126290729657</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1268.387350155504</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1378.211181640625</v>
+      </c>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="n">
+        <v>1549322</v>
+      </c>
+      <c r="H156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I156" t="n">
+        <v>8</v>
+      </c>
+      <c r="J156" t="n">
+        <v>26</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>35</v>
+      </c>
+      <c r="O156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1380.80583879769</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1471.768498210635</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1349.270819085314</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1413.189086914062</v>
+      </c>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="n">
+        <v>1417280</v>
+      </c>
+      <c r="H157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I157" t="n">
+        <v>9</v>
+      </c>
+      <c r="J157" t="n">
+        <v>2</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>36</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1419.326438447264</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1546.813836943758</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1390.635536632985</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1506.09765625</v>
+      </c>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="n">
+        <v>2204301</v>
+      </c>
+      <c r="H158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I158" t="n">
+        <v>9</v>
+      </c>
+      <c r="J158" t="n">
+        <v>9</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>37</v>
+      </c>
+      <c r="O158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1530</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1645</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1505.050048828125</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1631.300048828125</v>
+      </c>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="n">
+        <v>2097424</v>
+      </c>
+      <c r="H159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I159" t="n">
+        <v>9</v>
+      </c>
+      <c r="J159" t="n">
+        <v>16</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>38</v>
+      </c>
+      <c r="O159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1650</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1823</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1636.650024414062</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1713.800048828125</v>
+      </c>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="n">
+        <v>1963507</v>
+      </c>
+      <c r="H160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I160" t="n">
+        <v>9</v>
+      </c>
+      <c r="J160" t="n">
+        <v>23</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>39</v>
+      </c>
+      <c r="O160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P160" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>1</v>
+      </c>
+      <c r="R160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1708</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1780.800048828125</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1602.050048828125</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1677.400024414062</v>
+      </c>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="n">
+        <v>974449</v>
+      </c>
+      <c r="H161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I161" t="n">
+        <v>9</v>
+      </c>
+      <c r="J161" t="n">
+        <v>30</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>40</v>
+      </c>
+      <c r="O161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1689.900024414062</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1731</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1583.050048828125</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1663.800048828125</v>
+      </c>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="n">
+        <v>818070</v>
+      </c>
+      <c r="H162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I162" t="n">
+        <v>10</v>
+      </c>
+      <c r="J162" t="n">
+        <v>7</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>41</v>
+      </c>
+      <c r="O162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1669</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1683.949951171875</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1555.050048828125</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1590.599975585938</v>
+      </c>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="n">
+        <v>439073</v>
+      </c>
+      <c r="H163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I163" t="n">
+        <v>10</v>
+      </c>
+      <c r="J163" t="n">
+        <v>14</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>42</v>
+      </c>
+      <c r="O163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1595</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1453.25</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1508.75</v>
+      </c>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="n">
+        <v>812680</v>
+      </c>
+      <c r="H164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I164" t="n">
+        <v>10</v>
+      </c>
+      <c r="J164" t="n">
+        <v>21</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>43</v>
+      </c>
+      <c r="O164" t="n">
+        <v>2</v>
+      </c>
+      <c r="P164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1507.949951171875</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1507.949951171875</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1971.5</v>
+      </c>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="n">
+        <v>5099880</v>
+      </c>
+      <c r="H165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I165" t="n">
+        <v>10</v>
+      </c>
+      <c r="J165" t="n">
+        <v>28</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>44</v>
+      </c>
+      <c r="O165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2130</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1935.050048828125</v>
+      </c>
+      <c r="E166" t="n">
+        <v>2038.849975585938</v>
+      </c>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="n">
+        <v>1692370</v>
+      </c>
+      <c r="H166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I166" t="n">
+        <v>11</v>
+      </c>
+      <c r="J166" t="n">
+        <v>4</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
+        <v>45</v>
+      </c>
+      <c r="O166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2039</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2149.949951171875</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1923.5</v>
+      </c>
+      <c r="E167" t="n">
+        <v>2021.949951171875</v>
+      </c>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="n">
+        <v>1090054</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I167" t="n">
+        <v>11</v>
+      </c>
+      <c r="J167" t="n">
+        <v>11</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>46</v>
+      </c>
+      <c r="O167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2024.949951171875</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2184.14990234375</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1995.449951171875</v>
+      </c>
+      <c r="E168" t="n">
+        <v>2080.64990234375</v>
+      </c>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="n">
+        <v>1703684</v>
+      </c>
+      <c r="H168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I168" t="n">
+        <v>11</v>
+      </c>
+      <c r="J168" t="n">
+        <v>18</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>47</v>
+      </c>
+      <c r="O168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2128</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2178.949951171875</v>
+      </c>
+      <c r="D169" t="n">
+        <v>2073.39990234375</v>
+      </c>
+      <c r="E169" t="n">
+        <v>2142.949951171875</v>
+      </c>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="n">
+        <v>870124</v>
+      </c>
+      <c r="H169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I169" t="n">
+        <v>11</v>
+      </c>
+      <c r="J169" t="n">
+        <v>25</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>48</v>
+      </c>
+      <c r="O169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2150</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2320.39990234375</v>
+      </c>
+      <c r="D170" t="n">
+        <v>2142.050048828125</v>
+      </c>
+      <c r="E170" t="n">
+        <v>2223.10009765625</v>
+      </c>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="n">
+        <v>1111378</v>
+      </c>
+      <c r="H170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I170" t="n">
+        <v>12</v>
+      </c>
+      <c r="J170" t="n">
+        <v>2</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>49</v>
+      </c>
+      <c r="O170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>1</v>
+      </c>
+      <c r="R170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2200</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2295.5</v>
+      </c>
+      <c r="D171" t="n">
+        <v>2103.60009765625</v>
+      </c>
+      <c r="E171" t="n">
+        <v>2122.949951171875</v>
+      </c>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="n">
+        <v>792607</v>
+      </c>
+      <c r="H171" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I171" t="n">
+        <v>12</v>
+      </c>
+      <c r="J171" t="n">
+        <v>9</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>50</v>
+      </c>
+      <c r="O171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2125.5</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2195.75</v>
+      </c>
+      <c r="D172" t="n">
+        <v>2006.25</v>
+      </c>
+      <c r="E172" t="n">
+        <v>2120.39990234375</v>
+      </c>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="n">
+        <v>842595</v>
+      </c>
+      <c r="H172" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I172" t="n">
+        <v>12</v>
+      </c>
+      <c r="J172" t="n">
+        <v>16</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>51</v>
+      </c>
+      <c r="O172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2120.39990234375</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2327</v>
+      </c>
+      <c r="D173" t="n">
+        <v>2066.10009765625</v>
+      </c>
+      <c r="E173" t="n">
+        <v>2257.39990234375</v>
+      </c>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="n">
+        <v>888482</v>
+      </c>
+      <c r="H173" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I173" t="n">
+        <v>12</v>
+      </c>
+      <c r="J173" t="n">
+        <v>23</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>52</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2268.75</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2362.89990234375</v>
+      </c>
+      <c r="D174" t="n">
+        <v>2032.900024414062</v>
+      </c>
+      <c r="E174" t="n">
+        <v>2120.550048828125</v>
+      </c>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="n">
+        <v>1116423</v>
+      </c>
+      <c r="H174" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I174" t="n">
+        <v>12</v>
+      </c>
+      <c r="J174" t="n">
+        <v>30</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>1</v>
+      </c>
+      <c r="O174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2120.550048828125</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2395</v>
+      </c>
+      <c r="D175" t="n">
+        <v>2037.050048828125</v>
+      </c>
+      <c r="E175" t="n">
+        <v>2081.949951171875</v>
+      </c>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="n">
+        <v>2313232</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>6</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>2</v>
+      </c>
+      <c r="O175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2080.050048828125</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2122.64990234375</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1959.650024414062</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2004.349975585938</v>
+      </c>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="n">
+        <v>1255159</v>
+      </c>
+      <c r="H176" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>13</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>3</v>
+      </c>
+      <c r="O176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2090.949951171875</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1936</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1984.599975585938</v>
+      </c>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="n">
+        <v>1000896</v>
+      </c>
+      <c r="H177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>20</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" t="n">
+        <v>4</v>
+      </c>
+      <c r="O177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1984.599975585938</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2409.949951171875</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1837.550048828125</v>
+      </c>
+      <c r="E178" t="n">
+        <v>2385.300048828125</v>
+      </c>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="n">
+        <v>5514172</v>
+      </c>
+      <c r="H178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>27</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>5</v>
+      </c>
+      <c r="O178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2412.25</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2644</v>
+      </c>
+      <c r="D179" t="n">
+        <v>2380</v>
+      </c>
+      <c r="E179" t="n">
+        <v>2493.14990234375</v>
+      </c>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="n">
+        <v>1481282</v>
+      </c>
+      <c r="H179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I179" t="n">
+        <v>2</v>
+      </c>
+      <c r="J179" t="n">
+        <v>3</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>6</v>
+      </c>
+      <c r="O179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2499</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2532</v>
+      </c>
+      <c r="D180" t="n">
+        <v>2080</v>
+      </c>
+      <c r="E180" t="n">
+        <v>2164.199951171875</v>
+      </c>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="n">
+        <v>1344415</v>
+      </c>
+      <c r="H180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I180" t="n">
+        <v>2</v>
+      </c>
+      <c r="J180" t="n">
+        <v>10</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>7</v>
+      </c>
+      <c r="O180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2154.39990234375</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2349</v>
+      </c>
+      <c r="D181" t="n">
+        <v>2101.75</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2240.25</v>
+      </c>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="n">
+        <v>1618199</v>
+      </c>
+      <c r="H181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I181" t="n">
+        <v>2</v>
+      </c>
+      <c r="J181" t="n">
+        <v>17</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>8</v>
+      </c>
+      <c r="O181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2230</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2339.949951171875</v>
+      </c>
+      <c r="D182" t="n">
+        <v>2141.14990234375</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2168.64990234375</v>
+      </c>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="n">
+        <v>1255946</v>
+      </c>
+      <c r="H182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I182" t="n">
+        <v>2</v>
+      </c>
+      <c r="J182" t="n">
+        <v>24</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N182" t="n">
+        <v>9</v>
+      </c>
+      <c r="O182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R182" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/AMIORG.NS.xlsx
+++ b/stock_historical_data/1wk/AMIORG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R182"/>
+  <dimension ref="A1:R191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8755,7 +8755,9 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
-      <c r="R148" t="inlineStr"/>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -8807,7 +8809,9 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
-      <c r="R149" t="inlineStr"/>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8859,7 +8863,9 @@
       <c r="Q150" t="n">
         <v>1</v>
       </c>
-      <c r="R150" t="inlineStr"/>
+      <c r="R150" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8911,7 +8917,9 @@
       <c r="Q151" t="n">
         <v>0</v>
       </c>
-      <c r="R151" t="inlineStr"/>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8963,7 +8971,9 @@
       <c r="Q152" t="n">
         <v>2</v>
       </c>
-      <c r="R152" t="inlineStr"/>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -9015,7 +9025,9 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
-      <c r="R153" t="inlineStr"/>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -9067,7 +9079,9 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
-      <c r="R154" t="inlineStr"/>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -9119,7 +9133,9 @@
       <c r="Q155" t="n">
         <v>0</v>
       </c>
-      <c r="R155" t="inlineStr"/>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -9171,7 +9187,9 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
-      <c r="R156" t="inlineStr"/>
+      <c r="R156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -9223,7 +9241,9 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
-      <c r="R157" t="inlineStr"/>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -9275,7 +9295,9 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
-      <c r="R158" t="inlineStr"/>
+      <c r="R158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -9327,7 +9349,9 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
-      <c r="R159" t="inlineStr"/>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -9379,7 +9403,9 @@
       <c r="Q160" t="n">
         <v>1</v>
       </c>
-      <c r="R160" t="inlineStr"/>
+      <c r="R160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -9431,7 +9457,9 @@
       <c r="Q161" t="n">
         <v>0</v>
       </c>
-      <c r="R161" t="inlineStr"/>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -9483,7 +9511,9 @@
       <c r="Q162" t="n">
         <v>0</v>
       </c>
-      <c r="R162" t="inlineStr"/>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -9535,7 +9565,9 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
-      <c r="R163" t="inlineStr"/>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -9587,7 +9619,9 @@
       <c r="Q164" t="n">
         <v>0</v>
       </c>
-      <c r="R164" t="inlineStr"/>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -9639,7 +9673,9 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
-      <c r="R165" t="inlineStr"/>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -9691,7 +9727,9 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
-      <c r="R166" t="inlineStr"/>
+      <c r="R166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -9743,7 +9781,9 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
-      <c r="R167" t="inlineStr"/>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -9795,7 +9835,9 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
-      <c r="R168" t="inlineStr"/>
+      <c r="R168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -9847,7 +9889,9 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
-      <c r="R169" t="inlineStr"/>
+      <c r="R169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -9899,7 +9943,9 @@
       <c r="Q170" t="n">
         <v>1</v>
       </c>
-      <c r="R170" t="inlineStr"/>
+      <c r="R170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -9951,7 +9997,9 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
-      <c r="R171" t="inlineStr"/>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -10003,7 +10051,9 @@
       <c r="Q172" t="n">
         <v>0</v>
       </c>
-      <c r="R172" t="inlineStr"/>
+      <c r="R172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -10055,7 +10105,9 @@
       <c r="Q173" t="n">
         <v>0</v>
       </c>
-      <c r="R173" t="inlineStr"/>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -10107,7 +10159,9 @@
       <c r="Q174" t="n">
         <v>0</v>
       </c>
-      <c r="R174" t="inlineStr"/>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -10159,7 +10213,9 @@
       <c r="Q175" t="n">
         <v>0</v>
       </c>
-      <c r="R175" t="inlineStr"/>
+      <c r="R175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -10211,7 +10267,9 @@
       <c r="Q176" t="n">
         <v>0</v>
       </c>
-      <c r="R176" t="inlineStr"/>
+      <c r="R176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -10263,7 +10321,9 @@
       <c r="Q177" t="n">
         <v>0</v>
       </c>
-      <c r="R177" t="inlineStr"/>
+      <c r="R177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -10315,7 +10375,9 @@
       <c r="Q178" t="n">
         <v>0</v>
       </c>
-      <c r="R178" t="inlineStr"/>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -10359,7 +10421,7 @@
         <v>6</v>
       </c>
       <c r="O179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P179" t="n">
         <v>0</v>
@@ -10367,7 +10429,9 @@
       <c r="Q179" t="n">
         <v>0</v>
       </c>
-      <c r="R179" t="inlineStr"/>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -10419,7 +10483,9 @@
       <c r="Q180" t="n">
         <v>0</v>
       </c>
-      <c r="R180" t="inlineStr"/>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -10471,7 +10537,9 @@
       <c r="Q181" t="n">
         <v>0</v>
       </c>
-      <c r="R181" t="inlineStr"/>
+      <c r="R181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -10523,7 +10591,477 @@
       <c r="Q182" t="n">
         <v>0</v>
       </c>
-      <c r="R182" t="inlineStr"/>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1089.974975585938</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1244.25</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1019.424987792969</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1228.800048828125</v>
+      </c>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="n">
+        <v>2727666</v>
+      </c>
+      <c r="H183" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I183" t="n">
+        <v>3</v>
+      </c>
+      <c r="J183" t="n">
+        <v>3</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="n">
+        <v>10</v>
+      </c>
+      <c r="O183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1222.550048828125</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1249.349975585938</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1076.599975585938</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1091.275024414062</v>
+      </c>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="n">
+        <v>1858104</v>
+      </c>
+      <c r="H184" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I184" t="n">
+        <v>3</v>
+      </c>
+      <c r="J184" t="n">
+        <v>10</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N184" t="n">
+        <v>11</v>
+      </c>
+      <c r="O184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1092</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1237.5</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1080.050048828125</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1211.800048828125</v>
+      </c>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="n">
+        <v>4164066</v>
+      </c>
+      <c r="H185" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I185" t="n">
+        <v>3</v>
+      </c>
+      <c r="J185" t="n">
+        <v>17</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N185" t="n">
+        <v>12</v>
+      </c>
+      <c r="O185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>2</v>
+      </c>
+      <c r="R185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1232.525024414062</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1271.574951171875</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1180.025024414062</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1220.400024414062</v>
+      </c>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="n">
+        <v>1961540</v>
+      </c>
+      <c r="H186" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I186" t="n">
+        <v>3</v>
+      </c>
+      <c r="J186" t="n">
+        <v>24</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>13</v>
+      </c>
+      <c r="O186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1220.400024414062</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1276.824951171875</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1127.974975585938</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1147.650024414062</v>
+      </c>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="n">
+        <v>2543998</v>
+      </c>
+      <c r="H187" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I187" t="n">
+        <v>3</v>
+      </c>
+      <c r="J187" t="n">
+        <v>31</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N187" t="n">
+        <v>14</v>
+      </c>
+      <c r="O187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B188" t="n">
+        <v>976.5499877929688</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1137</v>
+      </c>
+      <c r="D188" t="n">
+        <v>976.5499877929688</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1128.324951171875</v>
+      </c>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="n">
+        <v>2478902</v>
+      </c>
+      <c r="H188" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I188" t="n">
+        <v>4</v>
+      </c>
+      <c r="J188" t="n">
+        <v>7</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>15</v>
+      </c>
+      <c r="O188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1128.324951171875</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1187</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1128.324951171875</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1161.099975585938</v>
+      </c>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="n">
+        <v>1228982</v>
+      </c>
+      <c r="H189" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I189" t="n">
+        <v>4</v>
+      </c>
+      <c r="J189" t="n">
+        <v>14</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N189" t="n">
+        <v>16</v>
+      </c>
+      <c r="O189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>0</v>
+      </c>
+      <c r="R189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1167</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1167</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1042.199951171875</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1069.800048828125</v>
+      </c>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="n">
+        <v>2746720</v>
+      </c>
+      <c r="H190" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I190" t="n">
+        <v>4</v>
+      </c>
+      <c r="J190" t="n">
+        <v>21</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N190" t="n">
+        <v>17</v>
+      </c>
+      <c r="O190" t="n">
+        <v>0</v>
+      </c>
+      <c r="P190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>0</v>
+      </c>
+      <c r="R190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1068.699951171875</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1137.099975585938</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1040.5</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1130.599975585938</v>
+      </c>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="n">
+        <v>1426598</v>
+      </c>
+      <c r="H191" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I191" t="n">
+        <v>4</v>
+      </c>
+      <c r="J191" t="n">
+        <v>28</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>18</v>
+      </c>
+      <c r="O191" t="n">
+        <v>0</v>
+      </c>
+      <c r="P191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>0</v>
+      </c>
+      <c r="R191" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
